--- a/params_new.xlsx
+++ b/params_new.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sebas\Documents\MATLAB\ProCiencia\AttenuationImaging\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B8F777D-0B54-430F-BA3F-2A29E50AD384}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFAF18A4-B11A-4B5E-9057-B6BE539C3F00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="0" windowWidth="11712" windowHeight="12336" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1428" yWindow="1428" windowWidth="13980" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="3" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4581" uniqueCount="595">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4770" uniqueCount="596">
   <si>
     <t># PACS</t>
   </si>
@@ -1810,6 +1810,9 @@
   </si>
   <si>
     <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
   </si>
 </sst>
 </file>
@@ -2022,7 +2025,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2100,10 +2103,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -2457,16 +2456,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54A37E7-7016-47B5-8CA9-AE1F61892DCC}">
-  <dimension ref="A1:H141"/>
+  <dimension ref="A1:H158"/>
   <sheetViews>
-    <sheetView topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="D92" sqref="D92"/>
+    <sheetView tabSelected="1" topLeftCell="A142" workbookViewId="0">
+      <selection activeCell="G159" sqref="G159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="4.6640625" customWidth="1"/>
-    <col min="3" max="3" width="9.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="38.5546875" customWidth="1"/>
     <col min="5" max="5" width="10.21875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20.44140625" customWidth="1"/>
@@ -5880,34 +5879,706 @@
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G132" s="55"/>
+      <c r="A132" s="49">
+        <v>253325</v>
+      </c>
+      <c r="B132" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C132" t="s">
+        <v>55</v>
+      </c>
+      <c r="D132" t="s">
+        <v>338</v>
+      </c>
+      <c r="E132" t="s">
+        <v>19</v>
+      </c>
+      <c r="F132" t="s">
+        <v>20</v>
+      </c>
+      <c r="G132" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H132" s="50" t="s">
+        <v>575</v>
+      </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G133" s="55"/>
+      <c r="A133" s="49">
+        <v>259376</v>
+      </c>
+      <c r="B133" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" t="s">
+        <v>331</v>
+      </c>
+      <c r="E133" t="s">
+        <v>19</v>
+      </c>
+      <c r="F133" t="s">
+        <v>43</v>
+      </c>
+      <c r="G133" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H133" s="50" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G134" s="55"/>
+      <c r="A134" s="49">
+        <v>264738</v>
+      </c>
+      <c r="B134" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C134" t="s">
+        <v>90</v>
+      </c>
+      <c r="D134" t="s">
+        <v>72</v>
+      </c>
+      <c r="E134" t="s">
+        <v>47</v>
+      </c>
+      <c r="F134" t="s">
+        <v>43</v>
+      </c>
+      <c r="G134" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H134" s="50" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G135" s="55"/>
+      <c r="A135" s="49">
+        <v>265996</v>
+      </c>
+      <c r="B135" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C135" t="s">
+        <v>55</v>
+      </c>
+      <c r="D135" t="s">
+        <v>384</v>
+      </c>
+      <c r="E135" t="s">
+        <v>35</v>
+      </c>
+      <c r="F135" t="s">
+        <v>20</v>
+      </c>
+      <c r="G135" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H135" s="50" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G136" s="55"/>
+      <c r="A136" s="49">
+        <v>266844</v>
+      </c>
+      <c r="B136" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C136" t="s">
+        <v>29</v>
+      </c>
+      <c r="D136" t="s">
+        <v>48</v>
+      </c>
+      <c r="E136" t="s">
+        <v>19</v>
+      </c>
+      <c r="F136" t="s">
+        <v>20</v>
+      </c>
+      <c r="G136" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H136" s="50" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G137" s="55"/>
+      <c r="A137" s="49">
+        <v>270346</v>
+      </c>
+      <c r="B137" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C137" t="s">
+        <v>29</v>
+      </c>
+      <c r="D137" t="s">
+        <v>72</v>
+      </c>
+      <c r="E137" t="s">
+        <v>35</v>
+      </c>
+      <c r="F137" t="s">
+        <v>20</v>
+      </c>
+      <c r="G137" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H137" s="50" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G138" s="55"/>
+      <c r="A138" s="49">
+        <v>275562</v>
+      </c>
+      <c r="B138" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C138" t="s">
+        <v>32</v>
+      </c>
+      <c r="D138" t="s">
+        <v>48</v>
+      </c>
+      <c r="E138" t="s">
+        <v>19</v>
+      </c>
+      <c r="F138" t="s">
+        <v>43</v>
+      </c>
+      <c r="G138" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H138" s="50" t="s">
+        <v>576</v>
+      </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G139" s="55"/>
+      <c r="A139" s="49">
+        <v>275762</v>
+      </c>
+      <c r="B139" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C139" t="s">
+        <v>29</v>
+      </c>
+      <c r="D139" t="s">
+        <v>328</v>
+      </c>
+      <c r="E139" t="s">
+        <v>19</v>
+      </c>
+      <c r="F139" t="s">
+        <v>20</v>
+      </c>
+      <c r="G139" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H139" s="50" t="s">
+        <v>577</v>
+      </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G140" s="55"/>
+      <c r="A140" s="49">
+        <v>278242</v>
+      </c>
+      <c r="B140" s="42" t="s">
+        <v>595</v>
+      </c>
+      <c r="C140" t="s">
+        <v>29</v>
+      </c>
+      <c r="D140" t="s">
+        <v>506</v>
+      </c>
+      <c r="E140" t="s">
+        <v>35</v>
+      </c>
+      <c r="F140" t="s">
+        <v>43</v>
+      </c>
+      <c r="G140" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H140" s="50" t="s">
+        <v>571</v>
+      </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="G141" s="55"/>
+      <c r="A141" s="49">
+        <v>279339</v>
+      </c>
+      <c r="B141" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C141" t="s">
+        <v>29</v>
+      </c>
+      <c r="D141" t="s">
+        <v>51</v>
+      </c>
+      <c r="E141" t="s">
+        <v>19</v>
+      </c>
+      <c r="F141" t="s">
+        <v>43</v>
+      </c>
+      <c r="G141" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H141" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="142" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A142" s="49">
+        <v>280977</v>
+      </c>
+      <c r="B142" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="C142" t="s">
+        <v>29</v>
+      </c>
+      <c r="D142" t="s">
+        <v>89</v>
+      </c>
+      <c r="E142" t="s">
+        <v>19</v>
+      </c>
+      <c r="F142" t="s">
+        <v>43</v>
+      </c>
+      <c r="G142" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H142" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="143" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A143" s="49">
+        <v>282154</v>
+      </c>
+      <c r="B143" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C143" t="s">
+        <v>55</v>
+      </c>
+      <c r="D143" t="s">
+        <v>384</v>
+      </c>
+      <c r="E143" t="s">
+        <v>35</v>
+      </c>
+      <c r="F143" t="s">
+        <v>43</v>
+      </c>
+      <c r="G143" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H143" s="50" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A144" s="49">
+        <v>284262</v>
+      </c>
+      <c r="B144" s="42" t="s">
+        <v>568</v>
+      </c>
+      <c r="C144" t="s">
+        <v>29</v>
+      </c>
+      <c r="D144" t="s">
+        <v>80</v>
+      </c>
+      <c r="E144" t="s">
+        <v>19</v>
+      </c>
+      <c r="F144" t="s">
+        <v>20</v>
+      </c>
+      <c r="G144" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H144" s="50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A145" s="49">
+        <v>284280</v>
+      </c>
+      <c r="B145" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C145" t="s">
+        <v>29</v>
+      </c>
+      <c r="D145" t="s">
+        <v>61</v>
+      </c>
+      <c r="E145" t="s">
+        <v>19</v>
+      </c>
+      <c r="F145" t="s">
+        <v>20</v>
+      </c>
+      <c r="G145" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H145" s="50" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A146" s="49">
+        <v>284892</v>
+      </c>
+      <c r="B146" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="C146" t="s">
+        <v>29</v>
+      </c>
+      <c r="D146" t="s">
+        <v>72</v>
+      </c>
+      <c r="E146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146" t="s">
+        <v>20</v>
+      </c>
+      <c r="G146" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H146" s="50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A147" s="49">
+        <v>286975</v>
+      </c>
+      <c r="B147" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C147" t="s">
+        <v>29</v>
+      </c>
+      <c r="D147" t="s">
+        <v>46</v>
+      </c>
+      <c r="E147" t="s">
+        <v>47</v>
+      </c>
+      <c r="F147" t="s">
+        <v>43</v>
+      </c>
+      <c r="G147" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H147" s="50" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A148" s="49">
+        <v>289961</v>
+      </c>
+      <c r="B148" s="42" t="s">
+        <v>564</v>
+      </c>
+      <c r="C148" t="s">
+        <v>55</v>
+      </c>
+      <c r="D148" t="s">
+        <v>48</v>
+      </c>
+      <c r="E148" t="s">
+        <v>19</v>
+      </c>
+      <c r="F148" t="s">
+        <v>20</v>
+      </c>
+      <c r="G148" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H148" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A149" s="49">
+        <v>293241</v>
+      </c>
+      <c r="B149" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" t="s">
+        <v>537</v>
+      </c>
+      <c r="E149" t="s">
+        <v>19</v>
+      </c>
+      <c r="F149" t="s">
+        <v>434</v>
+      </c>
+      <c r="G149" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H149" s="50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A150" s="49">
+        <v>293869</v>
+      </c>
+      <c r="B150" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C150" t="s">
+        <v>29</v>
+      </c>
+      <c r="D150" t="s">
+        <v>72</v>
+      </c>
+      <c r="E150" t="s">
+        <v>35</v>
+      </c>
+      <c r="F150" t="s">
+        <v>20</v>
+      </c>
+      <c r="G150" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H150" s="50" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A151" s="49">
+        <v>295746</v>
+      </c>
+      <c r="B151" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C151" t="s">
+        <v>29</v>
+      </c>
+      <c r="D151" t="s">
+        <v>46</v>
+      </c>
+      <c r="E151" t="s">
+        <v>47</v>
+      </c>
+      <c r="F151" t="s">
+        <v>43</v>
+      </c>
+      <c r="G151" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H151" s="50" t="s">
+        <v>558</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A152" s="49">
+        <v>296538</v>
+      </c>
+      <c r="B152" s="42" t="s">
+        <v>563</v>
+      </c>
+      <c r="C152" t="s">
+        <v>29</v>
+      </c>
+      <c r="D152" t="s">
+        <v>215</v>
+      </c>
+      <c r="E152" t="s">
+        <v>19</v>
+      </c>
+      <c r="F152" t="s">
+        <v>20</v>
+      </c>
+      <c r="G152" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H152" s="50" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A153" s="49">
+        <v>300309</v>
+      </c>
+      <c r="B153" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="C153" t="s">
+        <v>90</v>
+      </c>
+      <c r="D153" t="s">
+        <v>51</v>
+      </c>
+      <c r="E153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F153" t="s">
+        <v>43</v>
+      </c>
+      <c r="G153" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H153" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A154" s="49">
+        <v>301842</v>
+      </c>
+      <c r="B154" s="42" t="s">
+        <v>567</v>
+      </c>
+      <c r="C154" t="s">
+        <v>29</v>
+      </c>
+      <c r="D154" t="s">
+        <v>547</v>
+      </c>
+      <c r="E154" t="s">
+        <v>35</v>
+      </c>
+      <c r="F154" t="s">
+        <v>43</v>
+      </c>
+      <c r="G154" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H154" s="50" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A155" s="49">
+        <v>303546</v>
+      </c>
+      <c r="B155" s="42" t="s">
+        <v>594</v>
+      </c>
+      <c r="C155" t="s">
+        <v>29</v>
+      </c>
+      <c r="D155" t="s">
+        <v>331</v>
+      </c>
+      <c r="E155" t="s">
+        <v>19</v>
+      </c>
+      <c r="F155" t="s">
+        <v>43</v>
+      </c>
+      <c r="G155" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H155" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A156" s="49">
+        <v>305582</v>
+      </c>
+      <c r="B156" s="42" t="s">
+        <v>569</v>
+      </c>
+      <c r="C156" t="s">
+        <v>55</v>
+      </c>
+      <c r="D156" t="s">
+        <v>284</v>
+      </c>
+      <c r="E156" t="s">
+        <v>19</v>
+      </c>
+      <c r="F156" t="s">
+        <v>20</v>
+      </c>
+      <c r="G156" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H156" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A157" s="49">
+        <v>308780</v>
+      </c>
+      <c r="B157" s="42" t="s">
+        <v>570</v>
+      </c>
+      <c r="C157" t="s">
+        <v>29</v>
+      </c>
+      <c r="D157" t="s">
+        <v>89</v>
+      </c>
+      <c r="E157" t="s">
+        <v>19</v>
+      </c>
+      <c r="F157" t="s">
+        <v>43</v>
+      </c>
+      <c r="G157" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H157" s="50" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A158" s="49">
+        <v>317902</v>
+      </c>
+      <c r="B158" s="42" t="s">
+        <v>565</v>
+      </c>
+      <c r="C158" t="s">
+        <v>29</v>
+      </c>
+      <c r="D158" t="s">
+        <v>72</v>
+      </c>
+      <c r="E158" t="s">
+        <v>47</v>
+      </c>
+      <c r="F158" t="s">
+        <v>43</v>
+      </c>
+      <c r="G158" s="55" t="s">
+        <v>571</v>
+      </c>
+      <c r="H158" s="50" t="s">
+        <v>571</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5918,7 +6589,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5CF811E7-3B6F-427D-9BAB-46522D7F4A0E}">
   <dimension ref="A1:J131"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+    <sheetView topLeftCell="A114" workbookViewId="0">
       <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
@@ -7122,7 +7793,7 @@
       <c r="F46" t="s">
         <v>20</v>
       </c>
-      <c r="G46" s="56" t="s">
+      <c r="G46" s="51" t="s">
         <v>571</v>
       </c>
       <c r="H46" s="50" t="s">
@@ -7136,16 +7807,16 @@
       <c r="B47" s="41" t="s">
         <v>566</v>
       </c>
-      <c r="C47" s="57" t="s">
+      <c r="C47" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D47" s="57" t="s">
+      <c r="D47" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="E47" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F47" s="57" t="s">
+      <c r="E47" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F47" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="46" t="s">
@@ -7162,16 +7833,16 @@
       <c r="B48" s="41" t="s">
         <v>568</v>
       </c>
-      <c r="C48" s="57" t="s">
+      <c r="C48" s="50" t="s">
         <v>55</v>
       </c>
-      <c r="D48" s="57" t="s">
+      <c r="D48" s="50" t="s">
         <v>40</v>
       </c>
-      <c r="E48" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F48" s="57" t="s">
+      <c r="E48" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F48" s="50" t="s">
         <v>20</v>
       </c>
       <c r="G48" s="46" t="s">
@@ -7188,16 +7859,16 @@
       <c r="B49" s="41" t="s">
         <v>567</v>
       </c>
-      <c r="C49" s="57" t="s">
+      <c r="C49" s="50" t="s">
         <v>29</v>
       </c>
-      <c r="D49" s="57" t="s">
+      <c r="D49" s="50" t="s">
         <v>65</v>
       </c>
-      <c r="E49" s="57" t="s">
-        <v>19</v>
-      </c>
-      <c r="F49" s="57" t="s">
+      <c r="E49" s="50" t="s">
+        <v>19</v>
+      </c>
+      <c r="F49" s="50" t="s">
         <v>43</v>
       </c>
       <c r="G49" s="46" t="s">
@@ -7214,16 +7885,16 @@
       <c r="B50" s="42" t="s">
         <v>570</v>
       </c>
-      <c r="C50" s="56" t="s">
+      <c r="C50" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D50" s="56" t="s">
+      <c r="D50" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="E50" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F50" s="56" t="s">
+      <c r="E50" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F50" s="51" t="s">
         <v>20</v>
       </c>
       <c r="G50" s="47" t="s">
@@ -7252,7 +7923,7 @@
       <c r="F51" t="s">
         <v>43</v>
       </c>
-      <c r="G51" s="56" t="s">
+      <c r="G51" s="51" t="s">
         <v>571</v>
       </c>
       <c r="H51" s="50" t="s">
@@ -7642,7 +8313,7 @@
       <c r="F66" t="s">
         <v>43</v>
       </c>
-      <c r="G66" s="56" t="s">
+      <c r="G66" s="51" t="s">
         <v>571</v>
       </c>
       <c r="H66" s="50" t="s">
@@ -7968,16 +8639,16 @@
       <c r="B79" s="42" t="s">
         <v>565</v>
       </c>
-      <c r="C79" s="56" t="s">
+      <c r="C79" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="D79" s="56" t="s">
+      <c r="D79" s="51" t="s">
         <v>241</v>
       </c>
-      <c r="E79" s="56" t="s">
-        <v>19</v>
-      </c>
-      <c r="F79" s="56" t="s">
+      <c r="E79" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="F79" s="51" t="s">
         <v>20</v>
       </c>
       <c r="G79" s="47" t="s">
@@ -8110,7 +8781,7 @@
       <c r="F84" t="s">
         <v>43</v>
       </c>
-      <c r="G84" s="58" t="s">
+      <c r="G84" s="47" t="s">
         <v>14</v>
       </c>
       <c r="H84" s="50" t="s">
@@ -9150,7 +9821,7 @@
       <c r="F124" t="s">
         <v>43</v>
       </c>
-      <c r="G124" s="59" t="s">
+      <c r="G124" s="55" t="s">
         <v>571</v>
       </c>
       <c r="H124" s="50" t="s">
@@ -9355,10 +10026,10 @@
   <dimension ref="A1:P902"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="2" topLeftCell="C145" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="2" topLeftCell="C252" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="A152" sqref="A152"/>
+      <selection pane="bottomRight" activeCell="E273" sqref="E273"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
